--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ggary\Desktop\新增資料夾\Big-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\朱子赫\FCP\Big-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4FE90C2-2997-4897-AFF2-49B021C684EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D350854-7A34-455C-9AA4-FED18A0710D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4425" yWindow="5010" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="375" yWindow="3555" windowWidth="34290" windowHeight="17445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -78,7 +78,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -88,6 +88,14 @@
   </si>
   <si>
     <t>客座率Lau</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天上飞的机数越</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得病的人数(当地)豪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -107,7 +115,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -130,16 +138,8 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>猪</t>
+      <t>朱</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天上飞的机数越</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>得病的人数(当地)豪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -147,17 +147,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -176,12 +176,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -211,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -230,9 +236,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -512,16 +519,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Z5" sqref="Z5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.42578125" customWidth="1"/>
+    <col min="1" max="1" width="45.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -550,7 +557,7 @@
       <c r="X1" s="7"/>
       <c r="Y1" s="7"/>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -627,7 +634,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -656,7 +663,7 @@
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -733,38 +740,86 @@
         <v>65.099999999999994</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="5">
+        <v>300</v>
+      </c>
+      <c r="C5" s="5">
+        <v>288</v>
+      </c>
+      <c r="D5" s="5">
+        <v>278</v>
+      </c>
+      <c r="E5" s="5">
+        <v>268</v>
+      </c>
+      <c r="F5" s="5">
+        <v>258</v>
+      </c>
+      <c r="G5" s="5">
+        <v>248</v>
+      </c>
+      <c r="H5" s="8">
+        <v>238.23</v>
+      </c>
+      <c r="I5" s="5">
+        <v>254</v>
+      </c>
+      <c r="J5" s="5">
+        <v>270</v>
+      </c>
+      <c r="K5" s="5">
+        <v>286</v>
+      </c>
+      <c r="L5" s="5">
+        <v>302</v>
+      </c>
+      <c r="M5" s="5">
+        <v>318</v>
+      </c>
+      <c r="N5" s="5">
+        <v>334</v>
+      </c>
+      <c r="O5" s="5">
+        <v>350</v>
+      </c>
+      <c r="P5" s="5">
+        <v>366</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>381.96</v>
+      </c>
+      <c r="R5" s="5">
+        <v>342</v>
+      </c>
+      <c r="S5" s="5">
+        <v>302</v>
+      </c>
+      <c r="T5" s="5">
+        <v>262</v>
+      </c>
+      <c r="U5" s="5">
+        <v>222</v>
+      </c>
+      <c r="V5" s="8">
+        <v>187.84</v>
+      </c>
+      <c r="W5" s="5">
+        <v>180</v>
+      </c>
+      <c r="X5" s="5">
+        <v>180</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-    </row>
-    <row r="6" spans="1:25">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -791,9 +846,9 @@
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -820,10 +875,10 @@
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -850,7 +905,7 @@
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -877,19 +932,19 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
     </row>
   </sheetData>
